--- a/tool/Tool Checklist.xlsx
+++ b/tool/Tool Checklist.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hi-Tech\Repo_STM\hitech_stm32_basic\tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389E4D98-EF2F-46D7-8EBA-9DB1EBF9E899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BA2BF6-CAC3-4DD5-8E8B-61B70C966A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2317254C-4A0E-4EE8-B3B6-2266DD2A6CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
-    <sheet name="Hướng dẫn" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,238 +240,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>594014</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>121228</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>460664</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>168853</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88E9473-D773-4508-A5BB-8DE5772AE732}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="594014" y="311728"/>
-          <a:ext cx="6534150" cy="6524625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>60614</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>64943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>506590</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>132505</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE43CA6-84B9-45AD-8A8C-BFCDC59E0CC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8546523" y="255443"/>
-          <a:ext cx="12568703" cy="6354062"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>450272</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>155863</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>215610</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>12988</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2509BC1-3531-4B37-84F8-C859403AEC61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="450272" y="8347363"/>
-          <a:ext cx="9463520" cy="4619625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>32038</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>65809</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8642B810-F21F-4C06-8737-C1FE3B04E56C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10685318" y="8485909"/>
-          <a:ext cx="12379902" cy="4724400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,7 +542,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,19 +686,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB4AC0B-96DE-487F-AA6D-FE1D2D0D84F1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K51" sqref="K45:K51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>